--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value167.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value167.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.543945339852528</v>
+        <v>0.9617735743522644</v>
       </c>
       <c r="B1">
-        <v>1.730859624589574</v>
+        <v>6.309230804443359</v>
       </c>
       <c r="C1">
-        <v>1.717707137632988</v>
+        <v>3.04810643196106</v>
       </c>
       <c r="D1">
-        <v>2.151830057058157</v>
+        <v>2.117587566375732</v>
       </c>
       <c r="E1">
-        <v>1.920598313880578</v>
+        <v>1.980319738388062</v>
       </c>
     </row>
   </sheetData>
